--- a/01_git_notes.xlsx
+++ b/01_git_notes.xlsx
@@ -4,15 +4,45 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">download from git </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone website address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex: </t>
+  </si>
+  <si>
+    <t>git clone https://github.com/tamilgovind2025/tamilgovind2025_projects.git</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local computer to git folder upload commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit -m "updated work"
+</t>
+  </si>
+  <si>
+    <t>git push origin main</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,12 +373,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="37.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -358,7 +433,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -370,7 +445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
